--- a/patient_data/patient_85.xlsx
+++ b/patient_data/patient_85.xlsx
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1472,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1614,19 +1614,19 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1798,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2209,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
